--- a/biology/Botanique/Hydrolea_spinosa/Hydrolea_spinosa.xlsx
+++ b/biology/Botanique/Hydrolea_spinosa/Hydrolea_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrolea spinosa est une espèce d'herbacée ou de sous-arbrisseau appartenant à la famille des Hydroleaceae.
-On l'appelle Carqueja au Brésil, Dadangkak, Jeruju en Indonésie[3].
+On l'appelle Carqueja au Brésil, Dadangkak, Jeruju en Indonésie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrolea spinosa est une herbacée ou un sous-arbrisseau épineux, à fleurs bleues, haut de 1-2 m, dressés ou décombant, plus ou moins ramifiés.
 Il porte à l'aisselle des feuilles, des épines, longues de 12-25 mm, généralement pubescentes glanduleuses.
@@ -528,9 +542,44 @@
 On compte généralement 2 styles longs de 2-4.1.5-13 mm, pubescents glanduleux à leurs bases.
 Le fruit est une capsule globuleuse à ovoïde, longue de 3,5 à 8 mm pour 3-7 mm de large, pubérulente ou glandulaire-pubescent sur sa moitié supérieure, et s'ouvrant plus ou moins régulièrement.
 Les graines sont de forme ovoïdes à cylindrique, symétrique, longues de 0,4-0,7 mm pour 0,2-0,3 mm de large, avec des crêtes longitudinales, et des réticulations se rétrécissant aux articulations (articulations avec ou sans papules).
-Hydrolea spinosa compte n = 10 chromosomes[4],[5],[6].
-taxon infra-spécifiques
-Hydrolea spinosa a longtemps été décrite comme une espèce extrêmement variable, notamment au niveau de la pubescence, des épines, de la forme et la taille des feuilles, ou de ses capsules triloculaires plutôt que biloculaires.
+Hydrolea spinosa compte n = 10 chromosomes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrolea_spinosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolea_spinosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>taxon infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrolea spinosa a longtemps été décrite comme une espèce extrêmement variable, notamment au niveau de la pubescence, des épines, de la forme et la taille des feuilles, ou de ses capsules triloculaires plutôt que biloculaires.
 Certains ont justifié ainsi l'existence de taxons infraspécifiques :
 Hydrolea spinosa var. cervantesii (Brand) L.J.Davenp. &amp; Pool
 Hydrolea spinosa var. maior (Brand) L.J.Davenp.
@@ -538,41 +587,8 @@
 Hydrolea spinosa var. spinosa L.
 Une grande partie de ces variations semble liée aux conditions environnementales locales.
 Cependant, les spécimens d'Amérique centrale sont généralement les plus épineux et les plus visqueux, avec des inflorescences plus compactes et plus compactes et des parties de fleurs plus petites.
-Au contraire, les spécimens du sud-est de l'Amérique du Sud portent moins d'épines (ou pas du tout), des inflorescences plus largement ramifiées, des parties de fleurs plus grandes et sont moins visqueuses[6].
+Au contraire, les spécimens du sud-est de l'Amérique du Sud portent moins d'épines (ou pas du tout), des inflorescences plus largement ramifiées, des parties de fleurs plus grandes et sont moins visqueuses.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hydrolea_spinosa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hydrolea_spinosa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hydrolea spinosa est présent en Amérique centrale depuis le Mexique, en passant par les Antilles, jusqu'à la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, la Bolivie, le Paraguay, et l'Uruguay[5].
-Hydrolea spinosa L. var. spinosa est largement réparti du Texas à l'Argentine.
-Hydrolea spinosa var. paraguayensis (Chodat) Davenport est limité au bassin Rio Paraguay-Rio Paraná du Paraguay et de l'Argentine, et aux régions voisines du Brésil et de l'Uruguay.
-Hydrolea spinosa var. maior (Brand) Davenport est limité au versant Pacifique du Mexique et du Guatemala[6].</t>
         </is>
       </c>
     </row>
@@ -597,15 +613,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hydrolea spinosa pousse dans les zones perturbées, le long des ruisseaux, des rivières, des lagunes, et des savanes humides, autour de 0–500 m au Venezuela[5]
-Hydrolea spinosa L. var. spinosa fleurit toute l'année.
-Hydrolea spinosa var. paraguayensis (Chodat) Davenport fleurit de décembre à mars.
-Hydrolea spinosa var. maior (Brand) Davenport fleurit d'octobre à mars[6].</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hydrolea spinosa est présent en Amérique centrale depuis le Mexique, en passant par les Antilles, jusqu'à la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, la Bolivie, le Paraguay, et l'Uruguay.
+Hydrolea spinosa L. var. spinosa est largement réparti du Texas à l'Argentine.
+Hydrolea spinosa var. paraguayensis (Chodat) Davenport est limité au bassin Rio Paraguay-Rio Paraná du Paraguay et de l'Argentine, et aux régions voisines du Brésil et de l'Uruguay.
+Hydrolea spinosa var. maior (Brand) Davenport est limité au versant Pacifique du Mexique et du Guatemala.</t>
         </is>
       </c>
     </row>
@@ -630,14 +648,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles amères d’Hydrolea spinosa sont employées en décoctions au Brésil comme toniques. La poudre de feuilles est donnée aux vaches pour augmenter la production de lait[7],[8],[9],[10].
-L'extrait de Hydrolea spinosa présente des activités anti-oxydantes[11],[12] et antibactériennes[13],[14],[3].
-</t>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hydrolea spinosa pousse dans les zones perturbées, le long des ruisseaux, des rivières, des lagunes, et des savanes humides, autour de 0–500 m au Venezuela
+Hydrolea spinosa L. var. spinosa fleurit toute l'année.
+Hydrolea spinosa var. paraguayensis (Chodat) Davenport fleurit de décembre à mars.
+Hydrolea spinosa var. maior (Brand) Davenport fleurit d'octobre à mars.</t>
         </is>
       </c>
     </row>
@@ -662,12 +683,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles amères d’Hydrolea spinosa sont employées en décoctions au Brésil comme toniques. La poudre de feuilles est donnée aux vaches pour augmenter la production de lait.
+L'extrait de Hydrolea spinosa présente des activités anti-oxydantes, et antibactériennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydrolea_spinosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolea_spinosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet qui le premier décrivit Hydrolea spinosa var. spinosa sous le nom de spinosa guianensis, en proposa le protologue suivant[15]: 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet qui le premier décrivit Hydrolea spinosa var. spinosa sous le nom de spinosa guianensis, en proposa le protologue suivant: 
 « HYDROLEA (ſpinoſa). Lin. Spec, 328. (Tabula 110.)Planta lacuſtris ſeu paluſtris ſpinoſa. Lœfl. It. pag. 399.
 Fruticulus, caulem unum aut plures, tripedales, rectos, ramoſos, lignoſos, tomento viſcoſo obductos, è radice fibroſa emitcens. Folia alterna, ſubſeſſilia, lanceolata, integerrima, pubeſcentia, viſcoſo. Spinæ axillares, ſubulatæ, rectæ, patentes. Flores corymboſi, congeſti, terminales; ſinguli ad baſini ſquamulâ ſubfoliaceâ muniti. Corolla cærulea.
 CAL. Perianthium monophyllum, quinquepartitum ; laciniis inæqualibus, oblongis, acutis. 
